--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/纺织、服装及皮革产品制造业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/纺织、服装及皮革产品制造业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,385 +558,306 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.793245634701754</v>
+        <v>0.800030721958268</v>
       </c>
       <c r="D2" t="n">
-        <v>0.016433411241641</v>
+        <v>0.016410324619036</v>
       </c>
       <c r="E2" t="n">
-        <v>0.006969511649508</v>
+        <v>0.006757586061982</v>
       </c>
       <c r="F2" t="n">
-        <v>0.101900350263618</v>
+        <v>0.110580277609576</v>
       </c>
       <c r="G2" t="n">
-        <v>0.086461888680379</v>
+        <v>0.10481122462084</v>
       </c>
       <c r="H2" t="n">
-        <v>0.094177188572827</v>
+        <v>0.087335832166898</v>
       </c>
       <c r="I2" t="n">
-        <v>0.019555581639904</v>
+        <v>0.020624794756388</v>
       </c>
       <c r="J2" t="n">
-        <v>0.206754365298246</v>
+        <v>0.199969278041732</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000227515702664</v>
+        <v>0.000245418239399</v>
       </c>
       <c r="L2" t="n">
-        <v>0.013702596303902</v>
+        <v>0.016219929011381</v>
       </c>
       <c r="M2" t="n">
-        <v>0.019038933480649</v>
+        <v>0.019627050605805</v>
       </c>
       <c r="N2" t="n">
-        <v>0.015905836346874</v>
+        <v>0.015091297973105</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004933206256715</v>
+        <v>0.00403551103474</v>
       </c>
       <c r="P2" t="n">
-        <v>0.044049219926933</v>
+        <v>0.035112627921671</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.016531424865992</v>
+        <v>0.014935559609463</v>
       </c>
       <c r="R2" t="n">
-        <v>0.434754017477716</v>
+        <v>0.436038394129151</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05668767505103</v>
+        <v>0.039420630742832</v>
       </c>
       <c r="T2" t="n">
-        <v>0.021640353651142</v>
+        <v>0.024153586295209</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004305685014554</v>
+        <v>0.003772299299484</v>
       </c>
       <c r="V2" t="n">
-        <v>0.003825938149382</v>
+        <v>0.003847276426551</v>
       </c>
       <c r="W2" t="n">
-        <v>0.012054950573487</v>
+        <v>0.013440850947999</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001876846573165</v>
+        <v>0.001912400328921</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.024967868577919</v>
+        <v>0.025627127599567</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.800030721958268</v>
+        <v>0.799655342603222</v>
       </c>
       <c r="D3" t="n">
-        <v>0.016410324619036</v>
+        <v>0.009120569684415001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006757586061982</v>
+        <v>0.005547220535403</v>
       </c>
       <c r="F3" t="n">
-        <v>0.110580277609576</v>
+        <v>0.110875840203322</v>
       </c>
       <c r="G3" t="n">
-        <v>0.10481122462084</v>
+        <v>0.102398388710568</v>
       </c>
       <c r="H3" t="n">
-        <v>0.087335832166898</v>
+        <v>0.084254826137919</v>
       </c>
       <c r="I3" t="n">
-        <v>0.020624794756388</v>
+        <v>0.020421288199511</v>
       </c>
       <c r="J3" t="n">
-        <v>0.199969278041732</v>
+        <v>0.200344657396778</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000245418239399</v>
+        <v>0.0009930351923540001</v>
       </c>
       <c r="L3" t="n">
-        <v>0.016219929011381</v>
+        <v>0.007264767946171</v>
       </c>
       <c r="M3" t="n">
-        <v>0.019627050605805</v>
+        <v>0.055219326032406</v>
       </c>
       <c r="N3" t="n">
-        <v>0.015091297973105</v>
+        <v>0.007325058048772</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00403551103474</v>
+        <v>0.001441480057164</v>
       </c>
       <c r="P3" t="n">
-        <v>0.035112627921671</v>
+        <v>0.026770686476938</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.014935559609463</v>
+        <v>0.014425664122513</v>
       </c>
       <c r="R3" t="n">
-        <v>0.436038394129151</v>
+        <v>0.445765787605581</v>
       </c>
       <c r="S3" t="n">
-        <v>0.039420630742832</v>
+        <v>0.050754294009761</v>
       </c>
       <c r="T3" t="n">
-        <v>0.024153586295209</v>
+        <v>0.021810155642014</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003772299299484</v>
+        <v>0.002422784851193</v>
       </c>
       <c r="V3" t="n">
-        <v>0.003847276426551</v>
+        <v>0.001659669798639</v>
       </c>
       <c r="W3" t="n">
-        <v>0.013440850947999</v>
+        <v>0.010591104592288</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001912400328921</v>
+        <v>0.0007435528328590001</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.025627127599567</v>
+        <v>0.02019449932021</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.799655342603222</v>
+        <v>0.786028556573209</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009120569684415001</v>
+        <v>0.008644444351696</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005547220535403</v>
+        <v>0.005919800332368</v>
       </c>
       <c r="F4" t="n">
-        <v>0.110875840203322</v>
+        <v>0.128063577512279</v>
       </c>
       <c r="G4" t="n">
-        <v>0.102398388710568</v>
+        <v>0.111221058730448</v>
       </c>
       <c r="H4" t="n">
-        <v>0.084254826137919</v>
+        <v>0.071502562354821</v>
       </c>
       <c r="I4" t="n">
-        <v>0.020421288199511</v>
+        <v>0.020250371902649</v>
       </c>
       <c r="J4" t="n">
-        <v>0.200344657396778</v>
+        <v>0.213971443426791</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0009930351923540001</v>
+        <v>0.000915788908985</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007264767946171</v>
+        <v>0.009285978649818</v>
       </c>
       <c r="M4" t="n">
-        <v>0.055219326032406</v>
+        <v>0.057287406382393</v>
       </c>
       <c r="N4" t="n">
-        <v>0.007325058048772</v>
+        <v>0.007406171304255</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001441480057164</v>
+        <v>0.00063524205846</v>
       </c>
       <c r="P4" t="n">
-        <v>0.026770686476938</v>
+        <v>0.031001215251525</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.014425664122513</v>
+        <v>0.010273177245196</v>
       </c>
       <c r="R4" t="n">
-        <v>0.445765787605581</v>
+        <v>0.432527555008125</v>
       </c>
       <c r="S4" t="n">
-        <v>0.050754294009761</v>
+        <v>0.05149879754217</v>
       </c>
       <c r="T4" t="n">
-        <v>0.021810155642014</v>
+        <v>0.019279924208139</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002422784851193</v>
+        <v>0.000856468238484</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001659669798639</v>
+        <v>0.001417911482166</v>
       </c>
       <c r="W4" t="n">
-        <v>0.010591104592288</v>
+        <v>0.010208078767978</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0007435528328590001</v>
+        <v>0.000647866380847</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02019449932021</v>
+        <v>0.021156603387199</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.786028556573209</v>
+        <v>0.815935290553738</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008644444351696</v>
+        <v>0.001890377875886</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005919800332368</v>
+        <v>0.023283805971915</v>
       </c>
       <c r="F5" t="n">
-        <v>0.128063577512279</v>
+        <v>0.100383432225875</v>
       </c>
       <c r="G5" t="n">
-        <v>0.111221058730448</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.071502562354821</v>
-      </c>
+        <v>0.110598238641217</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.020250371902649</v>
+        <v>0.017502120027639</v>
       </c>
       <c r="J5" t="n">
-        <v>0.213971443426791</v>
+        <v>0.184064709446262</v>
       </c>
       <c r="K5" t="n">
-        <v>0.000915788908985</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.009285978649818</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.057287406382393</v>
-      </c>
+        <v>0.000255332834752</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.007406171304255</v>
+        <v>0.00706493444489</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00063524205846</v>
+        <v>0.093962609237932</v>
       </c>
       <c r="P5" t="n">
-        <v>0.031001215251525</v>
+        <v>0.004026211320457</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.010273177245196</v>
+        <v>0.013122098718101</v>
       </c>
       <c r="R5" t="n">
-        <v>0.432527555008125</v>
+        <v>0.434648899022006</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05149879754217</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.019279924208139</v>
-      </c>
+        <v>0.051938139456949</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.000856468238484</v>
+        <v>0.002646232102169</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001417911482166</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.010208078767978</v>
-      </c>
+        <v>0.003573854950186</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>0.000647866380847</v>
+        <v>0.000711611429124</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.021156603387199</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.815935290553738</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.001890377875886</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.023283805971915</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.100383432225875</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.110598238641217</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.017502120027639</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.184064709446262</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.000255332834752</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.00706493444489</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.093962609237932</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.004026211320457</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.013122098718101</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.434648899022006</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.051938139456949</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0.002646232102169</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.003573854950186</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>0.000711611429124</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0.018445063243416</v>
       </c>
     </row>
